--- a/data/trans_orig/Q19B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Provincia-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>29.20795524131005</v>
+        <v>29.02803738986017</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>33.78525034946087</v>
+        <v>33.71572975301854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31.60177054030795</v>
+        <v>32.00891104760206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28.46786111266584</v>
+        <v>28.95942378236073</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>26.44248585214767</v>
+        <v>26.44472407373827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>21.64159716307228</v>
+        <v>21.58314542313734</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.12397141257289</v>
+        <v>30.52029607484728</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>31.73093610836677</v>
+        <v>31.31498700404221</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>28.54969049497518</v>
+        <v>28.79279780823747</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45.69674392931984</v>
+        <v>45.17610855674872</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>53.02624772797894</v>
+        <v>52.98579415238522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56.45592548153432</v>
+        <v>56.78076107732449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46.35381544661367</v>
+        <v>46.36090447051929</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>39.55221041936871</v>
+        <v>41.11102189828921</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>43.58861030548822</v>
+        <v>43.9622235857906</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>41.61717464302944</v>
+        <v>42.23085738543346</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>44.56756281110195</v>
+        <v>44.31784762098154</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.06383294924725</v>
+        <v>44.25230410672052</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>33.70193827169187</v>
+        <v>33.79354325056827</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>35.94360236974097</v>
+        <v>35.88388029909412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28.75626957631549</v>
+        <v>28.85073794226399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37.25486307629958</v>
+        <v>37.95652977467569</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.65550074466345</v>
+        <v>30.08224111166225</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>24.72193257830224</v>
+        <v>25.32221787857008</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>37.14628600396716</v>
+        <v>37.21760553221853</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>34.03524720452155</v>
+        <v>34.34044076189547</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>28.11673249184765</v>
+        <v>28.15837244790099</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46.98625141199934</v>
+        <v>46.77498495963879</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>51.43516974517413</v>
+        <v>50.47393909990711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39.02948375818079</v>
+        <v>38.80877270516141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52.37766701698551</v>
+        <v>53.43010980443717</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>41.95280207135814</v>
+        <v>42.51614157459326</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>36.06912594649115</v>
+        <v>37.46376398894944</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>46.94224595212954</v>
+        <v>47.41596985502994</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>44.08788189373627</v>
+        <v>44.190524656356</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>35.28394544236946</v>
+        <v>35.87059400099778</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.53904256054514</v>
+        <v>30.17783813116824</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>46.72765759634731</v>
+        <v>46.2714508954513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32.17144253166136</v>
+        <v>31.69867724398111</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38.89224475242845</v>
+        <v>39.12993740728252</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>43.95437299035762</v>
+        <v>43.12988560441266</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>26.53083018048346</v>
+        <v>26.322653321139</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>36.2560405053141</v>
+        <v>36.77281777050842</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>47.71411342768134</v>
+        <v>48.05417995478778</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>30.26520697272595</v>
+        <v>30.45315073675008</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>46.40583392838894</v>
+        <v>47.29010516238775</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>67.55379605398282</v>
+        <v>67.59654290424011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44.49171951452609</v>
+        <v>43.6072986435395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55.92530206100663</v>
+        <v>56.79663691523986</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>68.14761506800492</v>
+        <v>66.77813450984291</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>36.77451127409752</v>
+        <v>36.86328944649096</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>47.33904442212685</v>
+        <v>48.62306756706772</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>62.77109889224384</v>
+        <v>62.67364329642914</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>37.61866204756757</v>
+        <v>38.36204700000697</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>30.76930464695735</v>
+        <v>30.768506031924</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>36.58793348400933</v>
+        <v>36.97403541919729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33.94432576606344</v>
+        <v>34.35524743160048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34.13772772342396</v>
+        <v>33.65328565101084</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>36.42788292104693</v>
+        <v>36.23046270571527</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>31.06072235255605</v>
+        <v>31.21901980556122</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>33.72658211528853</v>
+        <v>34.26626336309518</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>38.59653838743165</v>
+        <v>39.11406356551231</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>34.55270556114305</v>
+        <v>34.83081217740389</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>44.30739569184097</v>
+        <v>43.26041438116865</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>61.30114408009086</v>
+        <v>59.26320899123657</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53.2702645974074</v>
+        <v>54.49820110253285</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48.93331363437852</v>
+        <v>49.15839889525094</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>58.83946756815853</v>
+        <v>56.57482646756219</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.86133240512066</v>
+        <v>47.55348732405457</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>43.29320370008782</v>
+        <v>44.08917569519841</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>54.61585286334643</v>
+        <v>55.14040173464691</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>47.0621365722882</v>
+        <v>47.31990353562395</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>36.55676783080724</v>
+        <v>36.97496661248949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>35.73159385669673</v>
+        <v>35.6445120987899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23.50541231586075</v>
+        <v>23.08243031770428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36.38992339288487</v>
+        <v>37.56936216130296</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>33.36568472047733</v>
+        <v>34.16289309330529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.03777788979103</v>
+        <v>21.00576662665696</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>39.5803282619736</v>
+        <v>40.04207708643808</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>37.50990749091945</v>
+        <v>37.80674477544285</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>24.10710389404945</v>
+        <v>23.37734776180025</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>61.20332462225133</v>
+        <v>62.66020410356641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>54.63313402919181</v>
+        <v>54.45791041315881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46.60625253503386</v>
+        <v>46.41773692552196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66.33682088561066</v>
+        <v>66.92044058174217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>62.18173421314199</v>
+        <v>63.18600738688981</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.89513227132881</v>
+        <v>33.34380353310904</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>57.98874725370077</v>
+        <v>59.68607690483629</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>53.59308000252805</v>
+        <v>53.46883421472494</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>36.43542148884865</v>
+        <v>37.0307992083758</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>29.08520204017025</v>
+        <v>29.20703207079077</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>37.58246653930471</v>
+        <v>38.04235287752013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35.33644891629385</v>
+        <v>35.2078536382457</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25.67427759495923</v>
+        <v>25.64641080792471</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>36.4628445665024</v>
+        <v>37.33872152988535</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.32347886414758</v>
+        <v>22.30116382001944</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>29.27560722556299</v>
+        <v>29.10881404464346</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>39.58739568591553</v>
+        <v>39.41062119094115</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>30.22924456801868</v>
+        <v>30.31377726324306</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>46.95813514809569</v>
+        <v>45.02553108992966</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>58.37414898340178</v>
+        <v>58.12430685209113</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57.52956781895485</v>
+        <v>58.71275183008308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39.66663088423852</v>
+        <v>40.42785923461945</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>53.73998516330149</v>
+        <v>54.62549025933708</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>41.26970069474999</v>
+        <v>37.0295637537553</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>39.78044047734646</v>
+        <v>39.3092093035125</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>51.85937251617005</v>
+        <v>52.09647055424716</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>44.19340899689497</v>
+        <v>44.0612510786945</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>34.8150181853508</v>
+        <v>33.9504647140046</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>43.68090137226081</v>
+        <v>43.82077183093149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26.26327043260813</v>
+        <v>26.16086397467013</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33.7551390568429</v>
+        <v>34.48265753565358</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>37.07120098305326</v>
+        <v>36.68886088643612</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.37763764044428</v>
+        <v>22.3533653488803</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>36.16009892234485</v>
+        <v>36.01101500628936</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>42.03663793100826</v>
+        <v>41.55178707576593</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.79677886570016</v>
+        <v>25.73319285835863</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>48.39632691184676</v>
+        <v>47.37789006259808</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>55.15255337928766</v>
+        <v>55.20951143943734</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48.52789840772725</v>
+        <v>49.55242836503202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50.09574027605743</v>
+        <v>49.29361144341473</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>51.28885124128726</v>
+        <v>50.9768736070338</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.26676372385121</v>
+        <v>35.35814043313311</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>45.56295938832152</v>
+        <v>46.17048360466431</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>50.67977830930431</v>
+        <v>50.72962069746387</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>38.5264884217484</v>
+        <v>38.79927750518788</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>29.57480576038312</v>
+        <v>29.84519252890632</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>27.13970962546239</v>
+        <v>27.52807666921116</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28.00905683860261</v>
+        <v>27.67628642869345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30.37081107393889</v>
+        <v>30.95255084186129</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>26.01086720852507</v>
+        <v>25.99932388198266</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>22.75053239300054</v>
+        <v>22.80715799189291</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>31.33290067365821</v>
+        <v>31.58754558460171</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>27.52277841205747</v>
+        <v>27.97869560459781</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>25.94855338777307</v>
+        <v>25.93815462370252</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>36.97810790780839</v>
+        <v>37.20930562626717</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>35.79460040381422</v>
+        <v>35.55770745635082</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>35.22250883145087</v>
+        <v>35.01289206615316</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>42.71327863674844</v>
+        <v>42.39054768752219</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>35.31660837571003</v>
+        <v>34.97778364749363</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>29.53934996562421</v>
+        <v>29.48535656771393</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>38.21420734088787</v>
+        <v>38.3296886699823</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>33.80754394809951</v>
+        <v>33.83173788436591</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>30.63494239978877</v>
+        <v>30.69834131535452</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>35.015808552778</v>
+        <v>34.95362157941499</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>40.54066706751013</v>
+        <v>40.78515054541301</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33.05279684876311</v>
+        <v>33.07523711610392</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37.40313899158926</v>
+        <v>37.66602281671658</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>37.05625055461094</v>
+        <v>36.84599226362186</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>26.81750453659317</v>
+        <v>26.87910779866056</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>37.00836030300241</v>
+        <v>36.95267524430697</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>39.47097310967212</v>
+        <v>39.40232228305717</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>30.64796609867103</v>
+        <v>30.56631929088016</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>39.74976015207249</v>
+        <v>39.76756655295195</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>45.96800964804987</v>
+        <v>46.22315007504855</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38.825176278619</v>
+        <v>38.77728219189459</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43.0599257462347</v>
+        <v>43.11962952732075</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>42.08178163027152</v>
+        <v>42.45232012053246</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>31.09679529956402</v>
+        <v>31.00962660773208</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>40.55459197367251</v>
+        <v>40.53519178699879</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>43.21893081244744</v>
+        <v>43.37359424680332</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>34.04781943149742</v>
+        <v>34.13006373537082</v>
       </c>
     </row>
     <row r="31">
